--- a/docs/action.xlsx
+++ b/docs/action.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangzhiyang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangzhiyang/PycharmProjects/graduation/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="38">
   <si>
     <t>结果</t>
     <rPh sb="0" eb="1">
@@ -127,14 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.4-17.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>训练共耗时355分钟
 action：dict_keys(['create_new_entry', 'remove_signature'])
 0:
@@ -160,33 +152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>待重新训练确认</t>
-    <rPh sb="0" eb="1">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>chong'x</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xun'l</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>que'ren</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不稳定</t>
-    <rPh sb="0" eb="1">
-      <t>bu'wen'd</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>很差0</t>
     <rPh sb="0" eb="1">
       <t>hen'cha</t>
@@ -207,6 +172,92 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>xun'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid=26810, maxturn=150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不好</t>
+    <rPh sb="0" eb="1">
+      <t>bu'h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid=20018, maxturn=100，81.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid=27710, maxturn=200，效果不好机器学习60多，random70多</t>
+    <rPh sb="23" eb="24">
+      <t>xiao'guo</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>bu'hao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ji'qi'xue'xi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>duo</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -335,13 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +426,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -459,11 +510,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1169,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L268"/>
+  <dimension ref="A1:P269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J268" sqref="J268"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="129" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,21 +1243,24 @@
     <col min="7" max="8" width="15.33203125" style="32" customWidth="1"/>
     <col min="9" max="9" width="30.1640625" style="25" customWidth="1"/>
     <col min="10" max="11" width="17.83203125" style="28" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="12" max="13" width="22.83203125" customWidth="1"/>
+    <col min="14" max="14" width="38" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" customWidth="1"/>
+    <col min="16" max="16" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1217,11 +1281,8 @@
       <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1242,7 +1303,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -1263,7 +1324,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -1284,7 +1345,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -1305,7 +1366,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -1326,7 +1387,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -1347,7 +1408,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -1368,7 +1429,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -1389,7 +1450,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -1404,7 +1465,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -1427,7 +1488,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -1450,7 +1511,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -1473,7 +1534,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -1496,7 +1557,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -1519,7 +1580,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -1542,7 +1603,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -1565,7 +1626,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -1581,17 +1642,14 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="36">
+      <c r="J18" s="37">
         <v>29.4</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="37">
         <v>242</v>
       </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -1614,7 +1672,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -1637,7 +1695,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33">
         <v>20</v>
       </c>
@@ -1659,8 +1717,14 @@
       <c r="K21" s="34">
         <v>249</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
         <v>21</v>
       </c>
@@ -1682,8 +1746,14 @@
       <c r="K22" s="34">
         <v>241</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -1706,7 +1776,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -1729,7 +1799,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -1752,7 +1822,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -1775,7 +1845,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -1798,7 +1868,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -1821,7 +1891,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -1844,7 +1914,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -1867,7 +1937,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -1890,7 +1960,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -1913,7 +1983,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33">
         <v>32</v>
       </c>
@@ -1936,10 +2006,13 @@
         <v>355</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -1962,7 +2035,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
         <v>34</v>
       </c>
@@ -1983,7 +2056,7 @@
       </c>
       <c r="K35" s="26"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
         <v>35</v>
       </c>
@@ -2004,7 +2077,7 @@
       </c>
       <c r="K36" s="26"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
         <v>36</v>
       </c>
@@ -2025,7 +2098,7 @@
       </c>
       <c r="K37" s="26"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
         <v>37</v>
       </c>
@@ -2046,7 +2119,7 @@
       </c>
       <c r="K38" s="26"/>
     </row>
-    <row r="39" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
         <v>38</v>
       </c>
@@ -2061,7 +2134,7 @@
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="29">
         <v>39</v>
       </c>
@@ -2079,10 +2152,12 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="21"/>
-      <c r="J40" s="26"/>
+      <c r="J40" s="26">
+        <v>32.9</v>
+      </c>
       <c r="K40" s="26"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="29">
         <v>40</v>
       </c>
@@ -2107,7 +2182,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33">
         <v>41</v>
       </c>
@@ -2131,8 +2206,14 @@
       <c r="K42" s="34">
         <v>275</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L42" s="16">
+        <v>32.9</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33">
         <v>42</v>
       </c>
@@ -2156,8 +2237,14 @@
       <c r="K43" s="34">
         <v>285</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="16">
+        <v>27.1</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="29">
         <v>43</v>
       </c>
@@ -2182,7 +2269,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="29">
         <v>44</v>
       </c>
@@ -2207,7 +2294,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="29">
         <v>45</v>
       </c>
@@ -2232,7 +2319,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="29">
         <v>46</v>
       </c>
@@ -2257,7 +2344,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="29">
         <v>47</v>
       </c>
@@ -2282,7 +2369,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="29">
         <v>48</v>
       </c>
@@ -2307,7 +2394,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="29">
         <v>49</v>
       </c>
@@ -2332,7 +2419,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33">
         <v>50</v>
       </c>
@@ -2356,11 +2443,14 @@
       <c r="K51" s="34">
         <v>260</v>
       </c>
-      <c r="L51" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="16">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="M51" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33">
         <v>51</v>
       </c>
@@ -2384,8 +2474,14 @@
       <c r="K52" s="34">
         <v>257</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="29">
         <v>52</v>
       </c>
@@ -2408,7 +2504,7 @@
       </c>
       <c r="K53" s="26"/>
     </row>
-    <row r="54" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33">
         <v>53</v>
       </c>
@@ -2430,8 +2526,11 @@
         <v>22.4</v>
       </c>
       <c r="K54" s="34"/>
-    </row>
-    <row r="55" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33">
         <v>54</v>
       </c>
@@ -2453,8 +2552,11 @@
         <v>22.4</v>
       </c>
       <c r="K55" s="34"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
         <v>55</v>
       </c>
@@ -2475,7 +2577,7 @@
       <c r="J56" s="26"/>
       <c r="K56" s="26"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
         <v>56</v>
       </c>
@@ -2494,11 +2596,11 @@
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K57" s="26"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
         <v>57</v>
       </c>
@@ -2521,7 +2623,7 @@
       </c>
       <c r="K58" s="26"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
         <v>58</v>
       </c>
@@ -2544,7 +2646,7 @@
       </c>
       <c r="K59" s="26"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
         <v>59</v>
       </c>
@@ -2563,11 +2665,11 @@
       <c r="H60" s="30"/>
       <c r="I60" s="21"/>
       <c r="J60" s="26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K60" s="26"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="29">
         <v>60</v>
       </c>
@@ -2586,11 +2688,11 @@
       <c r="H61" s="30"/>
       <c r="I61" s="21"/>
       <c r="J61" s="26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K61" s="26"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
         <v>61</v>
       </c>
@@ -2615,7 +2717,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
         <v>62</v>
       </c>
@@ -2640,7 +2742,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
         <v>63</v>
       </c>
@@ -2665,7 +2767,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
         <v>64</v>
       </c>
@@ -2690,7 +2792,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
         <v>65</v>
       </c>
@@ -2715,7 +2817,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
         <v>66</v>
       </c>
@@ -2740,7 +2842,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
         <v>67</v>
       </c>
@@ -2765,7 +2867,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
         <v>68</v>
       </c>
@@ -2790,7 +2892,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="29">
         <v>69</v>
       </c>
@@ -2815,7 +2917,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="29">
         <v>70</v>
       </c>
@@ -2840,7 +2942,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33">
         <v>71</v>
       </c>
@@ -2864,11 +2966,14 @@
       <c r="K72" s="34">
         <v>280</v>
       </c>
-      <c r="L72" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="16">
+        <v>27.1</v>
+      </c>
+      <c r="M72" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="29">
         <v>72</v>
       </c>
@@ -2893,7 +2998,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
         <v>73</v>
       </c>
@@ -2918,7 +3023,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
         <v>74</v>
       </c>
@@ -2943,7 +3048,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
         <v>75</v>
       </c>
@@ -2964,7 +3069,7 @@
       <c r="J76" s="26"/>
       <c r="K76" s="26"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
         <v>76</v>
       </c>
@@ -2989,7 +3094,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
         <v>77</v>
       </c>
@@ -3012,7 +3117,7 @@
       </c>
       <c r="K78" s="26"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
         <v>78</v>
       </c>
@@ -3035,33 +3140,36 @@
       </c>
       <c r="K79" s="26"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="29">
+    <row r="80" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="33">
         <v>79</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21" t="s">
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="30"/>
       <c r="H80" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="21"/>
-      <c r="J80" s="26">
+      <c r="I80" s="30"/>
+      <c r="J80" s="34">
         <v>30.6</v>
       </c>
-      <c r="K80" s="26"/>
-      <c r="L80" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="34"/>
+      <c r="L80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M80" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="29">
         <v>80</v>
       </c>
@@ -3082,7 +3190,7 @@
       <c r="J81" s="26"/>
       <c r="K81" s="26"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="29">
         <v>81</v>
       </c>
@@ -3105,7 +3213,7 @@
       </c>
       <c r="K82" s="26"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="29">
         <v>82</v>
       </c>
@@ -3128,7 +3236,7 @@
       </c>
       <c r="K83" s="26"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="29">
         <v>83</v>
       </c>
@@ -3151,7 +3259,7 @@
       </c>
       <c r="K84" s="26"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="29">
         <v>84</v>
       </c>
@@ -3170,34 +3278,40 @@
       <c r="H85" s="30"/>
       <c r="I85" s="21"/>
       <c r="J85" s="26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="29">
+    <row r="86" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="33">
         <v>85</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="21" t="s">
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="30"/>
       <c r="H86" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I86" s="21"/>
-      <c r="J86" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K86" s="26"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I86" s="30"/>
+      <c r="J86" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="34"/>
+      <c r="L86" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="29">
         <v>86</v>
       </c>
@@ -3216,11 +3330,11 @@
         <v>11</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K87" s="26"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -3241,7 +3355,7 @@
       <c r="J88" s="26"/>
       <c r="K88" s="26"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -3262,7 +3376,7 @@
       <c r="J89" s="26"/>
       <c r="K89" s="26"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -3283,7 +3397,7 @@
       <c r="J90" s="26"/>
       <c r="K90" s="26"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -3304,7 +3418,7 @@
       <c r="J91" s="26"/>
       <c r="K91" s="26"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -3325,7 +3439,7 @@
       <c r="J92" s="26"/>
       <c r="K92" s="26"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -3346,7 +3460,7 @@
       <c r="J93" s="26"/>
       <c r="K93" s="26"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -3367,7 +3481,7 @@
       <c r="J94" s="26"/>
       <c r="K94" s="26"/>
     </row>
-    <row r="95" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
         <v>94</v>
       </c>
@@ -3382,7 +3496,7 @@
       <c r="J95" s="27"/>
       <c r="K95" s="27"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="29">
         <v>95</v>
       </c>
@@ -3405,11 +3519,9 @@
       <c r="J96" s="26">
         <v>35.299999999999997</v>
       </c>
-      <c r="K96" s="26">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="26"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="29">
         <v>96</v>
       </c>
@@ -3432,11 +3544,9 @@
       <c r="J97" s="26">
         <v>30.6</v>
       </c>
-      <c r="K97" s="26">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="26"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -3459,7 +3569,7 @@
       <c r="J98" s="26"/>
       <c r="K98" s="26"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -3482,7 +3592,7 @@
       <c r="J99" s="26"/>
       <c r="K99" s="26"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
         <v>99</v>
       </c>
@@ -3502,10 +3612,12 @@
       <c r="I100" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J100" s="26"/>
+      <c r="J100" s="26">
+        <v>27.1</v>
+      </c>
       <c r="K100" s="26"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
         <v>100</v>
       </c>
@@ -3525,33 +3637,50 @@
       <c r="G101" s="30"/>
       <c r="H101" s="30"/>
       <c r="I101" s="21"/>
-      <c r="J101" s="26"/>
+      <c r="J101" s="26">
+        <v>31.8</v>
+      </c>
       <c r="K101" s="26"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+    <row r="102" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="38">
         <v>101</v>
       </c>
-      <c r="B102" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="21"/>
-      <c r="G102" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="30"/>
-      <c r="I102" s="21"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B102" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="39"/>
+      <c r="G102" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="40"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="42">
+        <v>37.6</v>
+      </c>
+      <c r="M102" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="N102" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O102" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="P102" s="43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -3574,7 +3703,7 @@
       <c r="J103" s="26"/>
       <c r="K103" s="26"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="29">
         <v>103</v>
       </c>
@@ -3594,10 +3723,12 @@
       <c r="I104" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J104" s="26"/>
+      <c r="J104" s="26">
+        <v>34.1</v>
+      </c>
       <c r="K104" s="26"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -3620,7 +3751,7 @@
       <c r="J105" s="26"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -3643,7 +3774,7 @@
       <c r="J106" s="26"/>
       <c r="K106" s="26"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="29">
         <v>106</v>
       </c>
@@ -3663,10 +3794,12 @@
       <c r="I107" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J107" s="26"/>
+      <c r="J107" s="26">
+        <v>27.1</v>
+      </c>
       <c r="K107" s="26"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="29">
         <v>107</v>
       </c>
@@ -3689,11 +3822,9 @@
       <c r="J108" s="26">
         <v>27.1</v>
       </c>
-      <c r="K108" s="26">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K108" s="26"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -3716,7 +3847,7 @@
       <c r="J109" s="26"/>
       <c r="K109" s="26"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -3739,7 +3870,7 @@
       <c r="J110" s="26"/>
       <c r="K110" s="26"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="29">
         <v>110</v>
       </c>
@@ -3759,10 +3890,12 @@
       <c r="G111" s="30"/>
       <c r="H111" s="30"/>
       <c r="I111" s="21"/>
-      <c r="J111" s="26"/>
+      <c r="J111" s="26">
+        <v>32.9</v>
+      </c>
       <c r="K111" s="26"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -3828,7 +3961,9 @@
       <c r="I114" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J114" s="26"/>
+      <c r="J114" s="26">
+        <v>36.5</v>
+      </c>
       <c r="K114" s="26"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -3897,7 +4032,9 @@
       <c r="I117" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J117" s="26"/>
+      <c r="J117" s="26">
+        <v>28.2</v>
+      </c>
       <c r="K117" s="26"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -4035,7 +4172,9 @@
       <c r="I123" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J123" s="26"/>
+      <c r="J123" s="26">
+        <v>34.1</v>
+      </c>
       <c r="K123" s="26"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4219,7 +4358,9 @@
       <c r="G131" s="30"/>
       <c r="H131" s="30"/>
       <c r="I131" s="21"/>
-      <c r="J131" s="26"/>
+      <c r="J131" s="26">
+        <v>31.8</v>
+      </c>
       <c r="K131" s="26"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -4288,7 +4429,9 @@
       <c r="I134" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J134" s="26"/>
+      <c r="J134" s="26">
+        <v>29.4</v>
+      </c>
       <c r="K134" s="26"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -4357,7 +4500,9 @@
       <c r="I137" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J137" s="26"/>
+      <c r="J137" s="26">
+        <v>30.6</v>
+      </c>
       <c r="K137" s="26"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -4495,7 +4640,9 @@
       <c r="I143" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J143" s="26"/>
+      <c r="J143" s="26">
+        <v>34.1</v>
+      </c>
       <c r="K143" s="26"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -4748,7 +4895,9 @@
       <c r="I154" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J154" s="26"/>
+      <c r="J154" s="26">
+        <v>35.299999999999997</v>
+      </c>
       <c r="K154" s="26"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -5064,7 +5213,9 @@
       <c r="G168" s="30"/>
       <c r="H168" s="30"/>
       <c r="I168" s="21"/>
-      <c r="J168" s="26"/>
+      <c r="J168" s="26">
+        <v>32.9</v>
+      </c>
       <c r="K168" s="26"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
@@ -5139,7 +5290,9 @@
       <c r="I171" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J171" s="26"/>
+      <c r="J171" s="26">
+        <v>30.6</v>
+      </c>
       <c r="K171" s="26"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
@@ -5214,7 +5367,9 @@
       <c r="I174" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J174" s="26"/>
+      <c r="J174" s="26">
+        <v>30.6</v>
+      </c>
       <c r="K174" s="26"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
@@ -5364,7 +5519,9 @@
       <c r="I180" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J180" s="26"/>
+      <c r="J180" s="26">
+        <v>36.5</v>
+      </c>
       <c r="K180" s="26"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -5714,7 +5871,9 @@
       <c r="I194" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J194" s="26"/>
+      <c r="J194" s="26">
+        <v>34.1</v>
+      </c>
       <c r="K194" s="26"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -6089,7 +6248,9 @@
       <c r="I209" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J209" s="26"/>
+      <c r="J209" s="26">
+        <v>38.200000000000003</v>
+      </c>
       <c r="K209" s="26"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
@@ -6685,7 +6846,9 @@
       <c r="I233" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J233" s="26"/>
+      <c r="J233" s="26">
+        <v>35.200000000000003</v>
+      </c>
       <c r="K233" s="26"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
@@ -7632,6 +7795,12 @@
       <c r="K268" s="26">
         <v>208</v>
       </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B269" s="21"/>
+      <c r="C269" s="21"/>
+      <c r="E269" s="21"/>
+      <c r="G269" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
